--- a/IPPU/A1_Outputs/A-O_Parametrization.xlsx
+++ b/IPPU/A1_Outputs/A-O_Parametrization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\IPPU_2025_01_08\A1_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\IPPU_2025_01_14\A1_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862966DE-5F84-4F2D-85DF-5AFB804273B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751C2B8-2079-46AB-A8FA-A1DD4221A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15906,79 +15906,79 @@
         <v>3.3290000000000002</v>
       </c>
       <c r="J7" s="28">
-        <v>3.3449000000000004</v>
+        <v>3.3284000000000002</v>
       </c>
       <c r="K7" s="28">
-        <v>3.3599000000000001</v>
+        <v>3.3278000000000003</v>
       </c>
       <c r="L7" s="28">
-        <v>3.4826000000000001</v>
+        <v>3.4340000000000002</v>
       </c>
       <c r="M7" s="28">
-        <v>3.6048</v>
+        <v>3.5399000000000003</v>
       </c>
       <c r="N7" s="28">
-        <v>3.4923000000000002</v>
+        <v>3.4114000000000004</v>
       </c>
       <c r="O7" s="28">
-        <v>3.3796000000000004</v>
+        <v>3.2819000000000003</v>
       </c>
       <c r="P7" s="28">
-        <v>3.6518000000000002</v>
+        <v>3.6055000000000001</v>
       </c>
       <c r="Q7" s="28">
-        <v>3.9234</v>
+        <v>3.9285000000000001</v>
       </c>
       <c r="R7" s="28">
-        <v>3.3032000000000004</v>
+        <v>3.3584000000000001</v>
       </c>
       <c r="S7" s="28">
-        <v>2.6825000000000001</v>
+        <v>2.7886000000000002</v>
       </c>
       <c r="T7" s="28">
-        <v>3.8523000000000001</v>
+        <v>4.0095000000000001</v>
       </c>
       <c r="U7" s="28">
-        <v>3.5563000000000002</v>
+        <v>3.7645000000000004</v>
       </c>
       <c r="V7" s="28">
-        <v>3.7443000000000004</v>
+        <v>3.9750000000000001</v>
       </c>
       <c r="W7" s="28">
-        <v>3.9323000000000001</v>
+        <v>4.1825000000000001</v>
       </c>
       <c r="X7" s="28">
-        <v>4.1202999999999994</v>
+        <v>4.3877999999999995</v>
       </c>
       <c r="Y7" s="28">
-        <v>4.3153999999999995</v>
+        <v>4.5610999999999997</v>
       </c>
       <c r="Z7" s="28">
-        <v>4.5040999999999993</v>
+        <v>4.7320000000000002</v>
       </c>
       <c r="AA7" s="28">
-        <v>4.6863999999999999</v>
+        <v>4.9005999999999998</v>
       </c>
       <c r="AB7" s="28">
-        <v>4.8618999999999994</v>
+        <v>5.0659999999999998</v>
       </c>
       <c r="AC7" s="28">
-        <v>5.0309999999999997</v>
+        <v>5.2286000000000001</v>
       </c>
       <c r="AD7" s="28">
-        <v>5.2862</v>
+        <v>5.4284999999999997</v>
       </c>
       <c r="AE7" s="28">
-        <v>5.5411000000000001</v>
+        <v>5.6277999999999997</v>
       </c>
       <c r="AF7" s="28">
-        <v>5.7957000000000001</v>
+        <v>5.8274999999999997</v>
       </c>
       <c r="AG7" s="28">
-        <v>6.0504999999999995</v>
+        <v>6.0271999999999997</v>
       </c>
       <c r="AH7" s="29">
-        <v>6.3056000000000001</v>
+        <v>6.2265999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -16538,55 +16538,55 @@
         <v>5.0559000000000003</v>
       </c>
       <c r="R17" s="27">
-        <v>4.2073</v>
+        <v>4.2404000000000002</v>
       </c>
       <c r="S17" s="27">
-        <v>3.3584999999999998</v>
+        <v>3.4119000000000002</v>
       </c>
       <c r="T17" s="27">
-        <v>4.8960999999999997</v>
+        <v>5.0137</v>
       </c>
       <c r="U17" s="27">
-        <v>4.4800000000000004</v>
+        <v>4.6246</v>
       </c>
       <c r="V17" s="27">
-        <v>4.7091000000000003</v>
+        <v>4.8611000000000004</v>
       </c>
       <c r="W17" s="27">
-        <v>4.9381000000000004</v>
+        <v>5.0975000000000001</v>
       </c>
       <c r="X17" s="27">
-        <v>5.1670999999999996</v>
+        <v>5.3339999999999996</v>
       </c>
       <c r="Y17" s="27">
-        <v>5.3962000000000003</v>
+        <v>5.5704000000000002</v>
       </c>
       <c r="Z17" s="27">
-        <v>5.6252000000000004</v>
+        <v>5.8068</v>
       </c>
       <c r="AA17" s="27">
-        <v>5.8543000000000003</v>
+        <v>6.0433000000000003</v>
       </c>
       <c r="AB17" s="27">
-        <v>6.0834000000000001</v>
+        <v>6.2797999999999998</v>
       </c>
       <c r="AC17" s="27">
-        <v>6.3124000000000002</v>
+        <v>6.5162000000000004</v>
       </c>
       <c r="AD17" s="27">
-        <v>6.5415000000000001</v>
+        <v>6.7526999999999999</v>
       </c>
       <c r="AE17" s="27">
-        <v>6.7706</v>
+        <v>6.9892000000000003</v>
       </c>
       <c r="AF17" s="27">
-        <v>6.9996</v>
+        <v>7.2256</v>
       </c>
       <c r="AG17" s="27">
-        <v>7.2286999999999999</v>
+        <v>7.4621000000000004</v>
       </c>
       <c r="AH17" s="30">
-        <v>7.4577999999999998</v>
+        <v>7.6985000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
